--- a/DccBlocks/DccPowerDistribution/board/doc/PowerDistribution-bom.xlsx
+++ b/DccBlocks/DccPowerDistribution/board/doc/PowerDistribution-bom.xlsx
@@ -860,7 +860,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
+    <t>7.0.2.1-36-g582732918d-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
